--- a/doc/daily_tracking.xlsx
+++ b/doc/daily_tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\personal\JJBaby\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D0C28B-285E-4DB6-B0CE-9F170AF7C005}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA8E71B-6482-4E22-95E2-7E825854E88F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{5A54F73C-E4A4-488F-8451-B849D94644A9}"/>
   </bookViews>
@@ -721,10 +721,10 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1563,7 +1563,7 @@
       </c>
       <c r="D30" s="2">
         <f t="shared" si="1"/>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E30" s="7">
         <v>56.1</v>
@@ -1571,9 +1571,15 @@
       <c r="F30" s="1">
         <v>56.2</v>
       </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
+      <c r="G30" s="1">
+        <v>56.6</v>
+      </c>
+      <c r="H30" s="1">
+        <v>56.4</v>
+      </c>
+      <c r="I30" s="1">
+        <v>56.6</v>
+      </c>
       <c r="J30" s="1">
         <v>56.7</v>
       </c>
@@ -1589,13 +1595,11 @@
       <c r="B31" s="2">
         <v>28</v>
       </c>
-      <c r="C31" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D31" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="C31" s="2">
+        <v>56.5</v>
+      </c>
+      <c r="D31" s="2">
+        <v>56.9</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="1"/>

--- a/doc/daily_tracking.xlsx
+++ b/doc/daily_tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\personal\JJBaby\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA8E71B-6482-4E22-95E2-7E825854E88F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E107058-E4A8-4E0D-ADBD-CFEF7D104F2B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{5A54F73C-E4A4-488F-8451-B849D94644A9}"/>
   </bookViews>
@@ -720,11 +720,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CBB36FB-D2CE-4C1B-BDC8-34816EBD3834}">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomRight" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1601,13 +1601,27 @@
       <c r="D31" s="2">
         <v>56.9</v>
       </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
+      <c r="E31" s="7">
+        <v>56.5</v>
+      </c>
+      <c r="F31" s="1">
+        <v>56.9</v>
+      </c>
+      <c r="G31" s="1">
+        <v>56.7</v>
+      </c>
+      <c r="H31" s="1">
+        <v>56.6</v>
+      </c>
+      <c r="I31" s="1">
+        <v>56.4</v>
+      </c>
+      <c r="J31" s="1">
+        <v>56.7</v>
+      </c>
+      <c r="K31" s="1">
+        <v>56.8</v>
+      </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
@@ -1617,16 +1631,20 @@
       <c r="B32" s="1">
         <v>29</v>
       </c>
-      <c r="C32" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D32" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="1"/>
+      <c r="C32" s="2">
+        <f t="shared" si="0"/>
+        <v>57.2</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="E32" s="7">
+        <v>57.1</v>
+      </c>
+      <c r="F32" s="1">
+        <v>57.2</v>
+      </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>

--- a/doc/daily_tracking.xlsx
+++ b/doc/daily_tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\personal\JJBaby\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E107058-E4A8-4E0D-ADBD-CFEF7D104F2B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1875AB28-AE0C-44A1-ACFF-C1B9A8425D9E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{5A54F73C-E4A4-488F-8451-B849D94644A9}"/>
   </bookViews>
@@ -724,7 +724,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D32" sqref="D32"/>
+      <selection pane="bottomRight" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1645,11 +1645,21 @@
       <c r="F32" s="1">
         <v>57.2</v>
       </c>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
+      <c r="G32" s="1">
+        <v>57.3</v>
+      </c>
+      <c r="H32" s="1">
+        <v>57.5</v>
+      </c>
+      <c r="I32" s="1">
+        <v>57.3</v>
+      </c>
+      <c r="J32" s="1">
+        <v>57.1</v>
+      </c>
+      <c r="K32" s="1">
+        <v>57.2</v>
+      </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
@@ -1659,15 +1669,17 @@
       <c r="B33" s="2">
         <v>30</v>
       </c>
-      <c r="C33" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C33" s="2">
+        <f t="shared" si="0"/>
+        <v>57.5</v>
       </c>
       <c r="D33" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E33" s="7"/>
+      <c r="E33" s="7">
+        <v>57.5</v>
+      </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
